--- a/XUnitFile2Object/test1_require_string.xlsx
+++ b/XUnitFile2Object/test1_require_string.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\项目相关\ExcelProject\Object2Report\src\XUnitFile2Object\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OpenSource\File2Object\XUnitFile2Object\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58E9BFF-DABB-459F-AA9E-193268E8FC21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DE4D96-8C61-4F71-8EB0-1E6D20A0CE06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12750" yWindow="2340" windowWidth="18900" windowHeight="13245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -369,15 +369,15 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -391,10 +391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>123</v>
       </c>
@@ -405,7 +402,7 @@
         <v>36893.958333333336</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
